--- a/excels/SP/groupSPmean.xlsx
+++ b/excels/SP/groupSPmean.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,52 +458,308 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>1D</t>
+          <t>1D0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>177.2602739726027</v>
+        <v>86.375</v>
       </c>
       <c r="C2" t="n">
-        <v>93.54681930488661</v>
+        <v>163.7612561028248</v>
       </c>
       <c r="D2" t="n">
-        <v>107.6849315068493</v>
+        <v>178.625</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2D</t>
+          <t>1D1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.8947368421053</v>
+        <v>112.125</v>
       </c>
       <c r="C3" t="n">
-        <v>92.06061885407804</v>
+        <v>144.8433688700475</v>
       </c>
       <c r="D3" t="n">
-        <v>102.719298245614</v>
+        <v>164.25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>3D</t>
+          <t>1D2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>160.9756097560976</v>
+        <v>145.125</v>
       </c>
       <c r="C4" t="n">
-        <v>102.4475853513669</v>
+        <v>114.1791211279186</v>
       </c>
       <c r="D4" t="n">
-        <v>113.8048780487805</v>
+        <v>133</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1D3</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>171.25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>99.99042971571679</v>
+      </c>
+      <c r="D5" t="n">
+        <v>118.5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1D4</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>227.625</v>
+      </c>
+      <c r="C6" t="n">
+        <v>61.24506860146356</v>
+      </c>
+      <c r="D6" t="n">
+        <v>72.5625</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1D5</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>228.1111111111111</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48.61549067571278</v>
+      </c>
+      <c r="D7" t="n">
+        <v>55.11111111111111</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1D6</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>219.5</v>
+      </c>
+      <c r="C8" t="n">
+        <v>53.66755641176187</v>
+      </c>
+      <c r="D8" t="n">
+        <v>62.625</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2D0</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>102.75</v>
+      </c>
+      <c r="C9" t="n">
+        <v>152.5053884213689</v>
+      </c>
+      <c r="D9" t="n">
+        <v>167.375</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2D1</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>122.625</v>
+      </c>
+      <c r="C10" t="n">
+        <v>129.7025499480604</v>
+      </c>
+      <c r="D10" t="n">
+        <v>144.5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2D2</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>160.375</v>
+      </c>
+      <c r="C11" t="n">
+        <v>105.6068769356008</v>
+      </c>
+      <c r="D11" t="n">
+        <v>118.75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>2D3</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>172.625</v>
+      </c>
+      <c r="C12" t="n">
+        <v>94.90575040247892</v>
+      </c>
+      <c r="D12" t="n">
+        <v>105.875</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>2D4</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>213.375</v>
+      </c>
+      <c r="C13" t="n">
+        <v>63.83555101449284</v>
+      </c>
+      <c r="D13" t="n">
+        <v>71.5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>2D5</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>232.5555555555555</v>
+      </c>
+      <c r="C14" t="n">
+        <v>48.77403811431999</v>
+      </c>
+      <c r="D14" t="n">
+        <v>54.55555555555556</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>2D6</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>227</v>
+      </c>
+      <c r="C15" t="n">
+        <v>54.50499973469417</v>
+      </c>
+      <c r="D15" t="n">
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>3D0</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>87.5</v>
+      </c>
+      <c r="C16" t="n">
+        <v>162.7222968812845</v>
+      </c>
+      <c r="D16" t="n">
+        <v>177.75</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>3D1</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>101.75</v>
+      </c>
+      <c r="C17" t="n">
+        <v>144.5938375415305</v>
+      </c>
+      <c r="D17" t="n">
+        <v>160.75</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>3D2</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>140.75</v>
+      </c>
+      <c r="C18" t="n">
+        <v>117.824036803184</v>
+      </c>
+      <c r="D18" t="n">
+        <v>133.5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3D5</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>230.6666666666667</v>
+      </c>
+      <c r="C19" t="n">
+        <v>48.29658586124855</v>
+      </c>
+      <c r="D19" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3D6</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>235.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>45.57004460585181</v>
+      </c>
+      <c r="D20" t="n">
+        <v>51.625</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>